--- a/multithread/test_resources/task_app.xlsx
+++ b/multithread/test_resources/task_app.xlsx
@@ -62,26 +62,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:B3"/>
+  <dimension ref="A2:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="2">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="n" s="0">
+        <v>-1.075582568E9</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B2" t="n" s="0">
-        <v>123.0</v>
+      <c r="C2" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E2" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G2" t="b" s="0">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="n" s="0">
+        <v>9.08786818E8</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B3" t="n" s="0">
-        <v>321.0</v>
+      <c r="C3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G3" t="b" s="0">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
